--- a/05_Statistical_analysis/data/Hairshop.xlsx
+++ b/05_Statistical_analysis/data/Hairshop.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kookmin-my.sharepoint.com/personal/statistics_kookmin_kr/Documents/학교/경영통계/2022-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kookmin-my.sharepoint.com/personal/statistics_kookmin_kr/Documents/학교/통계분석/excel데이터셋/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E3D4B39FD79DF31D35F69AFDC83D4D060FD4B815" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A173C029-1010-4030-977D-1EF0BD3CA855}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_E3D4B39FD79DF31D35F69AFDC83D4D060FD4B815" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FC928CD-1433-4E75-8578-237418C1504F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -2446,32 +2444,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>